--- a/szetvalaszto/bin/Debug/parok.xlsx
+++ b/szetvalaszto/bin/Debug/parok.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfarkas\Documents\Visual Studio 2013\Projects\szetvalaszto\szetvalaszto\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfarkas\Documents\Git\szetvalaszto\szetvalaszto\szetvalaszto\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
